--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="18870" windowHeight="11250"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Group ID</t>
   </si>
@@ -44,12 +44,33 @@
   <si>
     <t>Slide With Diff</t>
   </si>
+  <si>
+    <t>Pilot Study</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>User Study</t>
+  </si>
+  <si>
+    <t>First Scenario</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -80,20 +101,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -172,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -206,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,30 +498,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -427,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -450,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -473,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -496,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -519,7 +639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -542,16 +662,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -574,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -597,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -620,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -643,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -666,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -689,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -697,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -705,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -713,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -721,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -729,13 +849,511 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f ca="1">RANDBETWEEN(1,6)</f>
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f ca="1">RANDBETWEEN(7,12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>3</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>8</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>9</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>10</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>11</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>12</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>15</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>16</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>17</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>18</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>19</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>20</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2</v>
+      </c>
+      <c r="C57" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>21</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>22</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>23</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>24</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2</v>
+      </c>
+      <c r="C61" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>26</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>27</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>28</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>29</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>30</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2</v>
+      </c>
+      <c r="C67" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>31</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>32</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2</v>
+      </c>
+      <c r="C69" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,16 +1361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -772,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -792,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -812,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -832,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -852,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -878,12 +1496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,11 +863,11 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>3</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>12</v>
       </c>
     </row>
@@ -919,7 +919,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>6</v>
       </c>
     </row>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Group ID</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>User ID</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Didn't really read instructions. Used Diff map directly to fly manual and pattern.</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Christine</t>
   </si>
 </sst>
 </file>
@@ -501,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +680,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,11 +875,11 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,6 +912,15 @@
       <c r="C28" s="1">
         <v>3</v>
       </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -930,8 +951,11 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,8 +965,11 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32">
-        <v>5</v>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Group ID</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Christine</t>
+  </si>
+  <si>
+    <t>Xinyang</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>Hiro</t>
+  </si>
+  <si>
+    <t>Didn't answer questions at all. Finished early when he was happy with score. Used Diff map directly to fly manual and pattern.</t>
   </si>
 </sst>
 </file>
@@ -514,7 +526,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +545,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,7 +692,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -875,11 +887,11 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,6 +944,15 @@
       <c r="C29" s="1">
         <v>12</v>
       </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -943,6 +964,12 @@
       <c r="C30" s="1">
         <v>6</v>
       </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -972,7 +999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -982,8 +1009,11 @@
       <c r="C33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -994,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1005,12 +1035,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -1021,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2</v>
       </c>
@@ -1032,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>3</v>
       </c>
@@ -1043,7 +1073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>4</v>
       </c>
@@ -1054,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>5</v>
       </c>
@@ -1065,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -1076,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>7</v>
       </c>
@@ -1087,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>8</v>
       </c>
@@ -1098,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>9</v>
       </c>
@@ -1109,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>10</v>
       </c>
@@ -1120,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>11</v>
       </c>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Group ID</t>
   </si>
@@ -87,7 +87,19 @@
     <t>Hiro</t>
   </si>
   <si>
-    <t>Didn't answer questions at all. Finished early when he was happy with score. Used Diff map directly to fly manual and pattern.</t>
+    <t>Didn't answer chat questions at all. Finished early when he was happy with score. Used Diff map directly to fly manual and pattern.</t>
+  </si>
+  <si>
+    <t>Didn't try to start over, because during training he felt that starting over normally resulted in worse performance. He used Diff map to fly too.</t>
+  </si>
+  <si>
+    <t>Used Diff map to fly too.</t>
+  </si>
+  <si>
+    <t>Used Behind view for manual planning. Restarted many times. Always ran out of time. Got over 1700 on Scenario 2 Sliding</t>
+  </si>
+  <si>
+    <t>Got 1680 on Scenario 2 Sliding</t>
   </si>
 </sst>
 </file>
@@ -525,13 +537,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="127" customWidth="1"/>
+    <col min="7" max="14" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -545,7 +559,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -692,7 +706,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -887,11 +901,11 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,6 +984,9 @@
       <c r="E30">
         <v>44</v>
       </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -984,6 +1001,12 @@
       <c r="D31" t="s">
         <v>18</v>
       </c>
+      <c r="E31">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -998,22 +1021,34 @@
       <c r="D32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1035,12 +1070,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -1051,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2</v>
       </c>
@@ -1062,7 +1097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>3</v>
       </c>
@@ -1073,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>4</v>
       </c>
@@ -1084,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>5</v>
       </c>
@@ -1095,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -1106,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>7</v>
       </c>
@@ -1117,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>8</v>
       </c>
@@ -1128,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>9</v>
       </c>
@@ -1139,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>10</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>11</v>
       </c>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18870" windowHeight="11250"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18870" windowHeight="11250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Group ID</t>
   </si>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +114,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -234,6 +248,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -706,7 +722,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,7 +921,7 @@
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,32 +1470,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
+      <c r="A1" s="12">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12">
+        <v>2</v>
+      </c>
+      <c r="G1" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,13 +1510,13 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,13 +1530,13 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,13 +1570,13 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1573,12 +1590,1577 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12">
+        <v>3</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>3</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <v>3</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>3</v>
+      </c>
+      <c r="B36" s="12">
+        <v>2</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12">
+        <v>3</v>
+      </c>
+      <c r="F36" s="12">
+        <v>2</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <f>E44+3</f>
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44:K44" si="0">F44+3</f>
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I73" si="1">E45+3</f>
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:J73" si="2">F45+3</f>
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:K73" si="3">G45+3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -1589,12 +3171,1404 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18870" windowHeight="11250" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18870" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Group ID</t>
   </si>
@@ -101,12 +101,15 @@
   <si>
     <t>Got 1680 on Scenario 2 Sliding</t>
   </si>
+  <si>
+    <t>User</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +342,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -374,7 +376,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,35 +551,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="127" customWidth="1"/>
     <col min="7" max="14" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -601,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -624,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -647,7 +648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -670,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -693,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -716,16 +717,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -748,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -771,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -794,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -817,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -840,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -863,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -871,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -879,7 +880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -887,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -895,7 +896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -903,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -911,20 +912,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -944,7 +945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
@@ -964,7 +965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2</v>
       </c>
@@ -984,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1086,12 +1087,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="6">
         <v>2</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="6">
         <v>3</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="6">
         <v>4</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="6">
         <v>5</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="6">
         <v>7</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="6">
         <v>8</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="6">
         <v>9</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="6">
         <v>10</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="6">
         <v>11</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="9">
         <v>12</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="3">
         <v>13</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
         <v>14</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="6">
         <v>15</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="6">
         <v>16</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="6">
         <v>17</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
         <v>18</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="6">
         <v>19</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="6">
         <v>20</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="6">
         <v>21</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="6">
         <v>22</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="6">
         <v>23</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="9">
         <v>24</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="3">
         <v>25</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="6">
         <v>26</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="6">
         <v>27</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="6">
         <v>28</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="6">
         <v>29</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="6">
         <v>30</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="6">
         <v>31</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="6">
         <v>32</v>
       </c>
@@ -1443,22 +1444,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
@@ -1469,16 +1470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="I44" sqref="I44:K73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="12">
         <v>1</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="12">
         <v>2</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="12">
         <v>3</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="12">
         <v>3</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3170,24 +3171,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -4565,6 +4566,146 @@
       </c>
       <c r="G61">
         <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f ca="1">RANDBETWEEN(1,60)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="13">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="18870" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pilot" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="User Study" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -108,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +343,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -376,6 +378,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,35 +554,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="127" customWidth="1"/>
     <col min="7" max="14" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -602,7 +605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -625,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -648,7 +651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -671,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -694,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -717,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -726,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -749,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -772,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -795,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -818,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -841,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -864,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -872,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -880,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -888,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -896,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -904,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -912,20 +915,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -945,7 +948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -965,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -985,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1087,12 +1090,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>3</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>4</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>5</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>7</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>8</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>9</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>10</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>11</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>12</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>13</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>14</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>15</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>16</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>17</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>18</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>19</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>20</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>21</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>22</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>23</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>24</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>25</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>26</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>27</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>28</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>29</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>30</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>31</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>32</v>
       </c>
@@ -1444,22 +1447,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
@@ -1470,16 +1473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="I44" sqref="I44:K73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12">
         <v>1</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>3</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>3</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3171,24 +3174,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -4407,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -4499,7 +4502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>28</v>
       </c>
@@ -4579,137 +4582,237 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>1</v>
+      </c>
+      <c r="B64">
+        <v>32</v>
       </c>
       <c r="F64">
         <f ca="1">RANDBETWEEN(1,60)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="G64">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
+      </c>
+      <c r="H64">
+        <f ca="1">RANDBETWEEN(31,60)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>25</v>
+      </c>
+      <c r="B88">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <sortState ref="A1:A25">
+    <sortCondition ref="A1:A25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -726,7 +726,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
@@ -3175,10 +3175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,15 +4591,15 @@
       </c>
       <c r="F64">
         <f ca="1">RANDBETWEEN(1,60)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H64">
         <f ca="1">RANDBETWEEN(31,60)</f>
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,6 +4792,46 @@
       </c>
       <c r="B88">
         <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>26</v>
+      </c>
+      <c r="B89">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>27</v>
+      </c>
+      <c r="B90">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
+        <v>29</v>
+      </c>
+      <c r="B92">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18870" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="18870" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Group ID</t>
   </si>
@@ -104,6 +104,27 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>Moeun Jeong</t>
+  </si>
+  <si>
+    <t>Daewoong Lee</t>
+  </si>
+  <si>
+    <t>Yuanzheng Song</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Seung Han Kim</t>
   </si>
 </sst>
 </file>
@@ -579,7 +600,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -726,7 +747,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -921,11 +942,11 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,6 +4602,9 @@
       <c r="C63" t="s">
         <v>10</v>
       </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
@@ -4589,44 +4613,68 @@
       <c r="B64">
         <v>32</v>
       </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
       <c r="F64">
         <f ca="1">RANDBETWEEN(1,60)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G64">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64">
         <f ca="1">RANDBETWEEN(31,60)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>2</v>
       </c>
       <c r="B65">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>3</v>
       </c>
       <c r="B66">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>4</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>5</v>
       </c>
@@ -4634,7 +4682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>6</v>
       </c>
@@ -4642,7 +4690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>7</v>
       </c>
@@ -4650,7 +4698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>8</v>
       </c>
@@ -4658,7 +4706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>9</v>
       </c>
@@ -4666,7 +4714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>10</v>
       </c>
@@ -4674,7 +4722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>11</v>
       </c>
@@ -4682,7 +4730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>12</v>
       </c>
@@ -4690,7 +4738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>13</v>
       </c>
@@ -4698,7 +4746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>14</v>
       </c>
@@ -4706,7 +4754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>15</v>
       </c>
@@ -4714,7 +4762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>16</v>
       </c>
@@ -4722,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>17</v>
       </c>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Group ID</t>
   </si>
@@ -125,6 +125,42 @@
   </si>
   <si>
     <t>Seung Han Kim</t>
+  </si>
+  <si>
+    <t>Soorin Im</t>
+  </si>
+  <si>
+    <t>Jongse Kim</t>
+  </si>
+  <si>
+    <t>Came for money. Rushed through everything.</t>
+  </si>
+  <si>
+    <t>Michelle Lee</t>
+  </si>
+  <si>
+    <t>Yunyeong Lee</t>
+  </si>
+  <si>
+    <t>Hyuna Yoon</t>
+  </si>
+  <si>
+    <t>Parker Huber</t>
+  </si>
+  <si>
+    <t>Michelle Wray</t>
+  </si>
+  <si>
+    <t>Emily Matson</t>
+  </si>
+  <si>
+    <t>Ye Sol Jung</t>
+  </si>
+  <si>
+    <t>John Peterson</t>
+  </si>
+  <si>
+    <t>Didn't compare</t>
   </si>
 </sst>
 </file>
@@ -747,7 +783,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -942,11 +978,11 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4619,20 +4655,23 @@
       <c r="D64" t="s">
         <v>33</v>
       </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
       <c r="F64">
         <f ca="1">RANDBETWEEN(1,60)</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G64">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H64">
         <f ca="1">RANDBETWEEN(31,60)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>2</v>
       </c>
@@ -4646,7 +4685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>3</v>
       </c>
@@ -4660,7 +4699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>4</v>
       </c>
@@ -4673,88 +4712,154 @@
       <c r="D67" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>5</v>
       </c>
       <c r="B68">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>6</v>
       </c>
       <c r="B69">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>7</v>
       </c>
       <c r="B70">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>8</v>
       </c>
       <c r="B71">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>9</v>
       </c>
       <c r="B72">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>10</v>
       </c>
       <c r="B73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>11</v>
       </c>
       <c r="B74">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>12</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>13</v>
       </c>
       <c r="B76">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>14</v>
       </c>
       <c r="B77">
         <v>28</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>15</v>
       </c>
@@ -4762,7 +4867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>16</v>
       </c>
@@ -4770,7 +4875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>17</v>
       </c>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Group ID</t>
   </si>
@@ -161,6 +161,30 @@
   </si>
   <si>
     <t>Didn't compare</t>
+  </si>
+  <si>
+    <t>Tsai-Yi Shen</t>
+  </si>
+  <si>
+    <t>Deson Haynie</t>
+  </si>
+  <si>
+    <t>Kyunghwan Kim</t>
+  </si>
+  <si>
+    <t>Chris Kim</t>
+  </si>
+  <si>
+    <t>Isaac Ramos</t>
+  </si>
+  <si>
+    <t>Bryce Perkins</t>
+  </si>
+  <si>
+    <t>Nathan Stout</t>
+  </si>
+  <si>
+    <t>Lehla Kisor</t>
   </si>
 </sst>
 </file>
@@ -636,7 +660,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -783,7 +807,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -978,7 +1002,7 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
@@ -3234,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,15 +4684,15 @@
       </c>
       <c r="F64">
         <f ca="1">RANDBETWEEN(1,60)</f>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H64">
         <f ca="1">RANDBETWEEN(31,60)</f>
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,6 +4890,12 @@
       <c r="B78">
         <v>46</v>
       </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
@@ -4874,6 +4904,12 @@
       <c r="B79">
         <v>7</v>
       </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
@@ -4882,48 +4918,84 @@
       <c r="B80">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>18</v>
       </c>
       <c r="B81">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>19</v>
       </c>
       <c r="B82">
         <v>49</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>20</v>
       </c>
       <c r="B83">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>21</v>
       </c>
       <c r="B84">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>22</v>
       </c>
       <c r="B85">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>23</v>
       </c>
@@ -4931,7 +5003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>24</v>
       </c>
@@ -4939,7 +5011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>25</v>
       </c>
@@ -4947,7 +5019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>26</v>
       </c>
@@ -4955,7 +5027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>27</v>
       </c>
@@ -4963,7 +5035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>28</v>
       </c>
@@ -4971,7 +5043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>29</v>
       </c>
@@ -4979,7 +5051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>30</v>
       </c>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Group ID</t>
   </si>
@@ -185,6 +185,27 @@
   </si>
   <si>
     <t>Lehla Kisor</t>
+  </si>
+  <si>
+    <t>Scott Kim</t>
+  </si>
+  <si>
+    <t>Dallan Carter</t>
+  </si>
+  <si>
+    <t>Mark Murdock</t>
+  </si>
+  <si>
+    <t>Emilae Belo</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Yoomi Kim</t>
   </si>
 </sst>
 </file>
@@ -660,7 +681,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -807,7 +828,7 @@
       </c>
       <c r="I9">
         <f ca="1">RANDBETWEEN(7, 12)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1002,7 +1023,7 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
@@ -3256,10 +3277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4684,15 +4705,15 @@
       </c>
       <c r="F64">
         <f ca="1">RANDBETWEEN(1,60)</f>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="G64">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H64">
         <f ca="1">RANDBETWEEN(31,60)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5002,6 +5023,12 @@
       <c r="B86">
         <v>31</v>
       </c>
+      <c r="C86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
@@ -5010,6 +5037,12 @@
       <c r="B87">
         <v>14</v>
       </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
@@ -5018,6 +5051,12 @@
       <c r="B88">
         <v>55</v>
       </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
@@ -5026,6 +5065,12 @@
       <c r="B89">
         <v>22</v>
       </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
@@ -5034,6 +5079,12 @@
       <c r="B90">
         <v>58</v>
       </c>
+      <c r="C90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
@@ -5057,6 +5108,24 @@
       </c>
       <c r="B93">
         <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94">
+        <f>COUNTIF(D64:D93, "F")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95">
+        <f>COUNTIF(D64:D93, "M")</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PathPlanner/UserStudyData/Groups.xlsx
+++ b/PathPlanner/UserStudyData/Groups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="18870" windowHeight="8460" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="18870" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(1, 6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B26">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f ca="1">RANDBETWEEN(7,12)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,7 +3280,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,15 +4705,15 @@
       </c>
       <c r="F64">
         <f ca="1">RANDBETWEEN(1,60)</f>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <f ca="1">RANDBETWEEN(31,60)</f>
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
